--- a/Pelis_series.xlsx
+++ b/Pelis_series.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/755da569946b675c/Desktop/Uni/8èQ/PRE/Projecte/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nuria\PycharmProjects\Projecte1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{996A2A1A-C73A-4249-B1F8-D70053333F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{207B1977-A2EF-4E51-883D-5237A68E9885}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15718AB7-598F-478D-80DA-3DDE3EA7F616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B4EB70A6-D4E1-4356-AD92-46009D8B0BDD}"/>
+    <workbookView xWindow="252" yWindow="3732" windowWidth="10140" windowHeight="6936" activeTab="1" xr2:uid="{B4EB70A6-D4E1-4356-AD92-46009D8B0BDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Peliculas" sheetId="1" r:id="rId1"/>
+    <sheet name="Capitulo" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -23,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -35,28 +34,193 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Iron Man</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="57">
   <si>
     <t>Titanic</t>
   </si>
   <si>
-    <t>Numero</t>
-  </si>
-  <si>
-    <t>Peliculas</t>
+    <t>Titulo</t>
+  </si>
+  <si>
+    <t>Duracion</t>
+  </si>
+  <si>
+    <t>Visto</t>
+  </si>
+  <si>
+    <t>Los vengadores: Endgame</t>
+  </si>
+  <si>
+    <t>Acción</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Stranger Things</t>
+  </si>
+  <si>
+    <t>Genero</t>
+  </si>
+  <si>
+    <t>Drama</t>
+  </si>
+  <si>
+    <t>Downton Abbey</t>
+  </si>
+  <si>
+    <t>Episodio 1</t>
+  </si>
+  <si>
+    <t>Episodio 2</t>
+  </si>
+  <si>
+    <t>Episodio 3</t>
+  </si>
+  <si>
+    <t>Episodio 4</t>
+  </si>
+  <si>
+    <t>Episodio 5</t>
+  </si>
+  <si>
+    <t>Episodio 6</t>
+  </si>
+  <si>
+    <t>Episodio 7</t>
+  </si>
+  <si>
+    <t>Episodio 8</t>
+  </si>
+  <si>
+    <t>Episodio 9</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>La Casa de Papel</t>
+  </si>
+  <si>
+    <t>Temporada</t>
+  </si>
+  <si>
+    <t>Hemos vuelto</t>
+  </si>
+  <si>
+    <t>Aikido</t>
+  </si>
+  <si>
+    <t>48 metros bajo el suelo</t>
+  </si>
+  <si>
+    <t>La hora del delfín</t>
+  </si>
+  <si>
+    <t>Bum, bum, ciao</t>
+  </si>
+  <si>
+    <t>Todo pareció insignificante</t>
+  </si>
+  <si>
+    <t>Orden</t>
+  </si>
+  <si>
+    <t>Pequeñas vacaciones</t>
+  </si>
+  <si>
+    <t>La deriva</t>
+  </si>
+  <si>
+    <t>La desaparición de Will Byers</t>
+  </si>
+  <si>
+    <t>La chica rara de la calle Maple</t>
+  </si>
+  <si>
+    <t>Luces navideñas</t>
+  </si>
+  <si>
+    <t>El cadáver</t>
+  </si>
+  <si>
+    <t>La pulga y el acróbata</t>
+  </si>
+  <si>
+    <t>El monstruo</t>
+  </si>
+  <si>
+    <t>La bañera</t>
+  </si>
+  <si>
+    <t>Del revés</t>
+  </si>
+  <si>
+    <t>MADMAX</t>
+  </si>
+  <si>
+    <t>Truco o trato, bicho raro</t>
+  </si>
+  <si>
+    <t>El renacuajo</t>
+  </si>
+  <si>
+    <t>Will el Sabio</t>
+  </si>
+  <si>
+    <t>Dig Dug</t>
+  </si>
+  <si>
+    <t>El espia</t>
+  </si>
+  <si>
+    <t>La hermana perdida</t>
+  </si>
+  <si>
+    <t>El Azotamentes</t>
+  </si>
+  <si>
+    <t>El portal</t>
+  </si>
+  <si>
+    <t>Fantasia</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Fotografia</t>
+  </si>
+  <si>
+    <t>Vengadores</t>
+  </si>
+  <si>
+    <t>Pelicula_1917</t>
+  </si>
+  <si>
+    <t>La_Casa_De_Papel</t>
+  </si>
+  <si>
+    <t>Stranger_Things</t>
+  </si>
+  <si>
+    <t>DowntonAbbey</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -82,8 +246,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,39 +565,1902 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C1987F3-4F05-4D71-AC9A-C7F30417DE43}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>52</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>205</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>180</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1917</v>
+      </c>
+      <c r="C4">
+        <v>156</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0275A26-F979-4458-B7F1-A78EFC8F589C}">
+  <dimension ref="A1:H69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D48" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42:H69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="24.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>48</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>48</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>59</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>48</v>
+      </c>
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>45</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>46</v>
+      </c>
+      <c r="F13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>58</v>
+      </c>
+      <c r="F14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>51</v>
+      </c>
+      <c r="F15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>52</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>50</v>
+      </c>
+      <c r="F17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>48</v>
+      </c>
+      <c r="F18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>47</v>
+      </c>
+      <c r="F19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>49</v>
+      </c>
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>59</v>
+      </c>
+      <c r="F21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>53</v>
+      </c>
+      <c r="F22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>54</v>
+      </c>
+      <c r="F23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>63</v>
+      </c>
+      <c r="F24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>59</v>
+      </c>
+      <c r="F26" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" t="s">
+        <v>50</v>
+      </c>
+      <c r="H26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>46</v>
+      </c>
+      <c r="F28" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>48</v>
+      </c>
+      <c r="F29" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>48</v>
+      </c>
+      <c r="F30" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" t="s">
+        <v>50</v>
+      </c>
+      <c r="H31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>51</v>
+      </c>
+      <c r="F32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" t="s">
+        <v>50</v>
+      </c>
+      <c r="H32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>52</v>
+      </c>
+      <c r="F33" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" t="s">
+        <v>50</v>
+      </c>
+      <c r="H33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>50</v>
+      </c>
+      <c r="F34" t="s">
+        <v>49</v>
+      </c>
+      <c r="G34" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>48</v>
+      </c>
+      <c r="F35" t="s">
+        <v>49</v>
+      </c>
+      <c r="G35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>47</v>
+      </c>
+      <c r="F36" t="s">
+        <v>49</v>
+      </c>
+      <c r="G36" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>48</v>
+      </c>
+      <c r="F37" t="s">
+        <v>49</v>
+      </c>
+      <c r="G37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>59</v>
+      </c>
+      <c r="F38" t="s">
+        <v>49</v>
+      </c>
+      <c r="G38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>49</v>
+      </c>
+      <c r="G39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>46</v>
+      </c>
+      <c r="F40" t="s">
+        <v>49</v>
+      </c>
+      <c r="G40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>9</v>
+      </c>
+      <c r="B41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>48</v>
+      </c>
+      <c r="F41" t="s">
+        <v>49</v>
+      </c>
+      <c r="G41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>48</v>
+      </c>
+      <c r="F42" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>58</v>
+      </c>
+      <c r="F43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>51</v>
+      </c>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" t="s">
+        <v>6</v>
+      </c>
+      <c r="H44" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>48</v>
+      </c>
+      <c r="F45" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>59</v>
+      </c>
+      <c r="F46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" t="s">
+        <v>6</v>
+      </c>
+      <c r="H46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" t="s">
+        <v>6</v>
+      </c>
+      <c r="H47" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>7</v>
+      </c>
+      <c r="B48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>46</v>
+      </c>
+      <c r="F48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" t="s">
+        <v>6</v>
+      </c>
+      <c r="H48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>48</v>
+      </c>
+      <c r="F49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" t="s">
+        <v>6</v>
+      </c>
+      <c r="H49" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>48</v>
+      </c>
+      <c r="F50" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" t="s">
+        <v>6</v>
+      </c>
+      <c r="H50" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>47</v>
+      </c>
+      <c r="F51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" t="s">
+        <v>6</v>
+      </c>
+      <c r="H51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>4</v>
+      </c>
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>45</v>
+      </c>
+      <c r="F52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" t="s">
+        <v>6</v>
+      </c>
+      <c r="H52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>5</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>46</v>
+      </c>
+      <c r="F53" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" t="s">
+        <v>6</v>
+      </c>
+      <c r="H53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>6</v>
+      </c>
+      <c r="B54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>58</v>
+      </c>
+      <c r="F54" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" t="s">
+        <v>6</v>
+      </c>
+      <c r="H54" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>7</v>
+      </c>
+      <c r="B55" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>51</v>
+      </c>
+      <c r="F55" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" t="s">
+        <v>6</v>
+      </c>
+      <c r="H55" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56">
+        <v>52</v>
+      </c>
+      <c r="F56" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" t="s">
+        <v>6</v>
+      </c>
+      <c r="H56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>2</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57">
+        <v>59</v>
+      </c>
+      <c r="F57" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" t="s">
+        <v>6</v>
+      </c>
+      <c r="H57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>3</v>
+      </c>
+      <c r="B58" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" t="s">
+        <v>6</v>
+      </c>
+      <c r="H58" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>4</v>
+      </c>
+      <c r="B59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59">
+        <v>46</v>
+      </c>
+      <c r="F59" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" t="s">
+        <v>6</v>
+      </c>
+      <c r="H59" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>5</v>
+      </c>
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60">
+        <v>48</v>
+      </c>
+      <c r="F60" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>6</v>
+      </c>
+      <c r="B61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61">
+        <v>48</v>
+      </c>
+      <c r="F61" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61" t="s">
+        <v>6</v>
+      </c>
+      <c r="H61" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>7</v>
+      </c>
+      <c r="B62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62">
+        <v>58</v>
+      </c>
+      <c r="F62" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" t="s">
+        <v>6</v>
+      </c>
+      <c r="H62" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
+      </c>
+      <c r="E63">
+        <v>51</v>
+      </c>
+      <c r="F63" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" t="s">
+        <v>6</v>
+      </c>
+      <c r="H63" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64">
+        <v>4</v>
+      </c>
+      <c r="E64">
+        <v>48</v>
+      </c>
+      <c r="F64" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" t="s">
+        <v>6</v>
+      </c>
+      <c r="H64" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>3</v>
+      </c>
+      <c r="B65" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65">
+        <v>4</v>
+      </c>
+      <c r="E65">
+        <v>59</v>
+      </c>
+      <c r="F65" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65" t="s">
+        <v>6</v>
+      </c>
+      <c r="H65" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>4</v>
+      </c>
+      <c r="B66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66">
+        <v>4</v>
+      </c>
+      <c r="E66">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" t="s">
+        <v>6</v>
+      </c>
+      <c r="H66" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>5</v>
+      </c>
+      <c r="B67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67">
+        <v>4</v>
+      </c>
+      <c r="E67">
+        <v>50</v>
+      </c>
+      <c r="F67" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" t="s">
+        <v>6</v>
+      </c>
+      <c r="H67" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>6</v>
+      </c>
+      <c r="B68" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68">
+        <v>4</v>
+      </c>
+      <c r="E68">
+        <v>54</v>
+      </c>
+      <c r="F68" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" t="s">
+        <v>6</v>
+      </c>
+      <c r="H68" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>7</v>
+      </c>
+      <c r="B69" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69">
+        <v>4</v>
+      </c>
+      <c r="E69">
+        <v>57</v>
+      </c>
+      <c r="F69" t="s">
+        <v>9</v>
+      </c>
+      <c r="G69" t="s">
+        <v>6</v>
+      </c>
+      <c r="H69" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Pelis_series.xlsx
+++ b/Pelis_series.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nuria\PycharmProjects\Projecte1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15718AB7-598F-478D-80DA-3DDE3EA7F616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4646014-E065-4456-8D67-8ECD3A50889A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="252" yWindow="3732" windowWidth="10140" windowHeight="6936" activeTab="1" xr2:uid="{B4EB70A6-D4E1-4356-AD92-46009D8B0BDD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{B4EB70A6-D4E1-4356-AD92-46009D8B0BDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Peliculas" sheetId="1" r:id="rId1"/>
@@ -201,10 +201,10 @@
     <t>La_Casa_De_Papel</t>
   </si>
   <si>
-    <t>Stranger_Things</t>
-  </si>
-  <si>
     <t>DowntonAbbey</t>
+  </si>
+  <si>
+    <t>Stranger_things</t>
   </si>
 </sst>
 </file>
@@ -654,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0275A26-F979-4458-B7F1-A78EFC8F589C}">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D48" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42:H69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25:H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1312,7 +1312,7 @@
         <v>50</v>
       </c>
       <c r="H25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1338,7 +1338,7 @@
         <v>50</v>
       </c>
       <c r="H26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1364,7 +1364,7 @@
         <v>50</v>
       </c>
       <c r="H27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1390,7 +1390,7 @@
         <v>50</v>
       </c>
       <c r="H28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1416,7 +1416,7 @@
         <v>50</v>
       </c>
       <c r="H29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1442,7 +1442,7 @@
         <v>50</v>
       </c>
       <c r="H30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -1468,7 +1468,7 @@
         <v>50</v>
       </c>
       <c r="H31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -1494,7 +1494,7 @@
         <v>50</v>
       </c>
       <c r="H32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -1520,7 +1520,7 @@
         <v>50</v>
       </c>
       <c r="H33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -1546,7 +1546,7 @@
         <v>6</v>
       </c>
       <c r="H34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -1572,7 +1572,7 @@
         <v>6</v>
       </c>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -1598,7 +1598,7 @@
         <v>6</v>
       </c>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -1624,7 +1624,7 @@
         <v>6</v>
       </c>
       <c r="H37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -1650,7 +1650,7 @@
         <v>6</v>
       </c>
       <c r="H38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -1676,7 +1676,7 @@
         <v>6</v>
       </c>
       <c r="H39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -1702,7 +1702,7 @@
         <v>6</v>
       </c>
       <c r="H40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -1728,7 +1728,7 @@
         <v>6</v>
       </c>
       <c r="H41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -1754,7 +1754,7 @@
         <v>6</v>
       </c>
       <c r="H42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -1780,7 +1780,7 @@
         <v>6</v>
       </c>
       <c r="H43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -1806,7 +1806,7 @@
         <v>6</v>
       </c>
       <c r="H44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -1832,7 +1832,7 @@
         <v>6</v>
       </c>
       <c r="H45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -1858,7 +1858,7 @@
         <v>6</v>
       </c>
       <c r="H46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -1884,7 +1884,7 @@
         <v>6</v>
       </c>
       <c r="H47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -1910,7 +1910,7 @@
         <v>6</v>
       </c>
       <c r="H48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -1936,7 +1936,7 @@
         <v>6</v>
       </c>
       <c r="H49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -1962,7 +1962,7 @@
         <v>6</v>
       </c>
       <c r="H50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -1988,7 +1988,7 @@
         <v>6</v>
       </c>
       <c r="H51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -2014,7 +2014,7 @@
         <v>6</v>
       </c>
       <c r="H52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -2040,7 +2040,7 @@
         <v>6</v>
       </c>
       <c r="H53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -2066,7 +2066,7 @@
         <v>6</v>
       </c>
       <c r="H54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -2092,7 +2092,7 @@
         <v>6</v>
       </c>
       <c r="H55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -2118,7 +2118,7 @@
         <v>6</v>
       </c>
       <c r="H56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -2144,7 +2144,7 @@
         <v>6</v>
       </c>
       <c r="H57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -2170,7 +2170,7 @@
         <v>6</v>
       </c>
       <c r="H58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -2196,7 +2196,7 @@
         <v>6</v>
       </c>
       <c r="H59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -2222,7 +2222,7 @@
         <v>6</v>
       </c>
       <c r="H60" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -2248,7 +2248,7 @@
         <v>6</v>
       </c>
       <c r="H61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -2274,7 +2274,7 @@
         <v>6</v>
       </c>
       <c r="H62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -2300,7 +2300,7 @@
         <v>6</v>
       </c>
       <c r="H63" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -2326,7 +2326,7 @@
         <v>6</v>
       </c>
       <c r="H64" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -2352,7 +2352,7 @@
         <v>6</v>
       </c>
       <c r="H65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -2378,7 +2378,7 @@
         <v>6</v>
       </c>
       <c r="H66" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -2404,7 +2404,7 @@
         <v>6</v>
       </c>
       <c r="H67" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -2430,7 +2430,7 @@
         <v>6</v>
       </c>
       <c r="H68" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -2456,7 +2456,7 @@
         <v>6</v>
       </c>
       <c r="H69" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
